--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145202.0416634979</v>
+        <v>25086043.30298164</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145202.0416634979</v>
+        <v>25086043.30298164</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20454.65179035979</v>
+        <v>2484361.757089006</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20454.65179035979</v>
+        <v>2484361.757089006</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341027911.423045</v>
+        <v>51408067.51530411</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9743.047928335051</v>
+        <v>1047119.014271785</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19462.95512503099</v>
+        <v>2089633.022947424</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29183.85709653551</v>
+        <v>3138489.490862652</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39234.29333897083</v>
+        <v>4155623.070450007</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49064.07247433224</v>
+        <v>5188565.321270688</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58780.65444583692</v>
+        <v>6236562.109186061</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68509.22326420993</v>
+        <v>7334318.01538139</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78237.79208258267</v>
+        <v>8432073.921576666</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88293.40062606582</v>
+        <v>9463494.835148249</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97796.2890547943</v>
+        <v>10545675.96490543</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107164.5494661654</v>
+        <v>11639729.1877733</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116543.5691761137</v>
+        <v>12735923.51105788</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125922.5888860506</v>
+        <v>13832117.8343435</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135995.8299372249</v>
+        <v>14860814.68830823</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>147285.4587944707</v>
+        <v>15694709.13508951</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27055,10 +27055,10 @@
         <v>66.9999999983192</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>312.000000001046</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>139</v>
